--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H2">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N2">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O2">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P2">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q2">
-        <v>7.626112436872223</v>
+        <v>4.336684473076667</v>
       </c>
       <c r="R2">
-        <v>68.63501193185</v>
+        <v>39.03016025769001</v>
       </c>
       <c r="S2">
-        <v>0.008273664849237302</v>
+        <v>0.005314095594232251</v>
       </c>
       <c r="T2">
-        <v>0.01028245688727206</v>
+        <v>0.00649136581178646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H3">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I3">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J3">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P3">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q3">
-        <v>103.455460885315</v>
+        <v>87.06876060844502</v>
       </c>
       <c r="R3">
-        <v>931.0991479678352</v>
+        <v>783.6188454760052</v>
       </c>
       <c r="S3">
-        <v>0.1122401246079107</v>
+        <v>0.1066925020755183</v>
       </c>
       <c r="T3">
-        <v>0.1394912971860681</v>
+        <v>0.1303288674555797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H4">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I4">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J4">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N4">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O4">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P4">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q4">
-        <v>0.4943491038500001</v>
+        <v>0.703063746035</v>
       </c>
       <c r="R4">
-        <v>4.44914193465</v>
+        <v>6.327573714315</v>
       </c>
       <c r="S4">
-        <v>0.0005363255312103965</v>
+        <v>0.000861521740505691</v>
       </c>
       <c r="T4">
-        <v>0.0006665418835188326</v>
+        <v>0.001052380912849832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H5">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I5">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J5">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N5">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O5">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P5">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q5">
-        <v>23.12159355642667</v>
+        <v>19.2397246132875</v>
       </c>
       <c r="R5">
-        <v>138.72956133856</v>
+        <v>115.438347679725</v>
       </c>
       <c r="S5">
-        <v>0.02508490629396215</v>
+        <v>0.02357601444985398</v>
       </c>
       <c r="T5">
-        <v>0.02078357230957152</v>
+        <v>0.01919932018085021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H6">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I6">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J6">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N6">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O6">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P6">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q6">
-        <v>0.4074560284183334</v>
+        <v>0.8028693877049999</v>
       </c>
       <c r="R6">
-        <v>3.667104255765</v>
+        <v>7.225824489345</v>
       </c>
       <c r="S6">
-        <v>0.0004420541459151692</v>
+        <v>0.0009838217888423397</v>
       </c>
       <c r="T6">
-        <v>0.0005493820187352179</v>
+        <v>0.001201774979718712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J7">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N7">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O7">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P7">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q7">
-        <v>18.83934330176889</v>
+        <v>12.72950272741511</v>
       </c>
       <c r="R7">
-        <v>169.55408971592</v>
+        <v>114.565524546736</v>
       </c>
       <c r="S7">
-        <v>0.02043903938590344</v>
+        <v>0.0155985049824325</v>
       </c>
       <c r="T7">
-        <v>0.02540150527395143</v>
+        <v>0.01905415515442415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J8">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P8">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q8">
         <v>255.573591419608</v>
@@ -948,10 +948,10 @@
         <v>2300.162322776472</v>
       </c>
       <c r="S8">
-        <v>0.2772749886951577</v>
+        <v>0.3131753081407641</v>
       </c>
       <c r="T8">
-        <v>0.3445955533767639</v>
+        <v>0.3825553101767926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J9">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N9">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O9">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P9">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q9">
-        <v>1.22122674632</v>
+        <v>2.063708330237333</v>
       </c>
       <c r="R9">
-        <v>10.99104071688</v>
+        <v>18.573374972136</v>
       </c>
       <c r="S9">
-        <v>0.001324924184847226</v>
+        <v>0.00252883127965135</v>
       </c>
       <c r="T9">
-        <v>0.001646607163553592</v>
+        <v>0.003089061651491913</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J10">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N10">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O10">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P10">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q10">
-        <v>57.11896360029867</v>
+        <v>56.47450914634</v>
       </c>
       <c r="R10">
-        <v>342.713781601792</v>
+        <v>338.84705487804</v>
       </c>
       <c r="S10">
-        <v>0.06196907864611572</v>
+        <v>0.06920285349422256</v>
       </c>
       <c r="T10">
-        <v>0.05134317871895233</v>
+        <v>0.05635590971027237</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J11">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N11">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O11">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P11">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q11">
-        <v>1.006568427005333</v>
+        <v>2.356668584952</v>
       </c>
       <c r="R11">
-        <v>9.059115843048</v>
+        <v>21.210017264568</v>
       </c>
       <c r="S11">
-        <v>0.001092038687051113</v>
+        <v>0.002887819536355181</v>
       </c>
       <c r="T11">
-        <v>0.001357178580888659</v>
+        <v>0.003527579185675779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H12">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I12">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J12">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N12">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O12">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P12">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q12">
-        <v>1.354815864725556</v>
+        <v>1.283470306174667</v>
       </c>
       <c r="R12">
-        <v>12.19334278253</v>
+        <v>11.551232755572</v>
       </c>
       <c r="S12">
-        <v>0.001469856691723031</v>
+        <v>0.001572741559067568</v>
       </c>
       <c r="T12">
-        <v>0.001826728340887975</v>
+        <v>0.001921162426657837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H13">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I13">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J13">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>162.299907</v>
       </c>
       <c r="O13">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P13">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q13">
-        <v>18.37936443504701</v>
+        <v>25.768572634266</v>
       </c>
       <c r="R13">
-        <v>165.414279915423</v>
+        <v>231.917153708394</v>
       </c>
       <c r="S13">
-        <v>0.01994000255521259</v>
+        <v>0.03157634805011691</v>
       </c>
       <c r="T13">
-        <v>0.02478130554502324</v>
+        <v>0.0385716859169923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H14">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I14">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J14">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N14">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O14">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P14">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q14">
-        <v>0.08782351613000002</v>
+        <v>0.208076341958</v>
       </c>
       <c r="R14">
-        <v>0.7904116451700002</v>
+        <v>1.872687077622</v>
       </c>
       <c r="S14">
-        <v>9.52808320564473E-05</v>
+        <v>0.0002549730281111514</v>
       </c>
       <c r="T14">
-        <v>0.0001184143986560132</v>
+        <v>0.0003114590560630512</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H15">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I15">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J15">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N15">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O15">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P15">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q15">
-        <v>4.107663246154668</v>
+        <v>5.694123101054999</v>
       </c>
       <c r="R15">
-        <v>24.64597947692801</v>
+        <v>34.16473860633</v>
       </c>
       <c r="S15">
-        <v>0.00445645527698942</v>
+        <v>0.006977476611957679</v>
       </c>
       <c r="T15">
-        <v>0.003692302431122686</v>
+        <v>0.005682165143404853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H16">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I16">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J16">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N16">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O16">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P16">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q16">
-        <v>0.07238653980633335</v>
+        <v>0.237614478354</v>
       </c>
       <c r="R16">
-        <v>0.6514788582570001</v>
+        <v>2.138530305186</v>
       </c>
       <c r="S16">
-        <v>7.85330631971656E-05</v>
+        <v>0.0002911685321784449</v>
       </c>
       <c r="T16">
-        <v>9.760038039547947E-05</v>
+        <v>0.0003556732131997468</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H17">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I17">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J17">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N17">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O17">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P17">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q17">
-        <v>22.894833355485</v>
+        <v>12.46845995935067</v>
       </c>
       <c r="R17">
-        <v>137.36900013291</v>
+        <v>74.81075975610401</v>
       </c>
       <c r="S17">
-        <v>0.0248388913132931</v>
+        <v>0.01527862784304419</v>
       </c>
       <c r="T17">
-        <v>0.02057974176382204</v>
+        <v>0.01244227553841168</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H18">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I18">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J18">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>162.299907</v>
       </c>
       <c r="O18">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P18">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q18">
-        <v>310.5901671777135</v>
+        <v>250.332566756118</v>
       </c>
       <c r="R18">
-        <v>1863.541003066281</v>
+        <v>1501.995400536708</v>
       </c>
       <c r="S18">
-        <v>0.3369631604528154</v>
+        <v>0.306753050250797</v>
       </c>
       <c r="T18">
-        <v>0.2791837501349769</v>
+        <v>0.249806855214833</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H19">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I19">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J19">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N19">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O19">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P19">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q19">
-        <v>1.484116638165</v>
+        <v>2.021388049034</v>
       </c>
       <c r="R19">
-        <v>8.904699828989999</v>
+        <v>12.128328294204</v>
       </c>
       <c r="S19">
-        <v>0.001610136719462026</v>
+        <v>0.002476972763938365</v>
       </c>
       <c r="T19">
-        <v>0.001334044964931364</v>
+        <v>0.002017143027938411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H20">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I20">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J20">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N20">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O20">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P20">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q20">
-        <v>69.41479499150401</v>
+        <v>55.316391464265</v>
       </c>
       <c r="R20">
-        <v>277.659179966016</v>
+        <v>221.26556585706</v>
       </c>
       <c r="S20">
-        <v>0.07530898004616489</v>
+        <v>0.06778371679886805</v>
       </c>
       <c r="T20">
-        <v>0.04159711591790379</v>
+        <v>0.03680014942411391</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H21">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I21">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J21">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N21">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O21">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P21">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q21">
-        <v>1.2232494534465</v>
+        <v>2.308340594142</v>
       </c>
       <c r="R21">
-        <v>7.339496720679</v>
+        <v>13.850043564852</v>
       </c>
       <c r="S21">
-        <v>0.001327118645129756</v>
+        <v>0.002828599280734575</v>
       </c>
       <c r="T21">
-        <v>0.001099556283017642</v>
+        <v>0.002303492957626774</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H22">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I22">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J22">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N22">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O22">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P22">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q22">
-        <v>1.312897473261111</v>
+        <v>0.7379400522533334</v>
       </c>
       <c r="R22">
-        <v>11.81607725935</v>
+        <v>6.64146047028</v>
       </c>
       <c r="S22">
-        <v>0.001424378904073445</v>
+        <v>0.0009042585424032137</v>
       </c>
       <c r="T22">
-        <v>0.001770208842049623</v>
+        <v>0.001104585509064431</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H23">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I23">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J23">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>162.299907</v>
       </c>
       <c r="O23">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P23">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q23">
-        <v>17.810701627565</v>
+        <v>14.81581751034</v>
       </c>
       <c r="R23">
-        <v>160.296314648085</v>
+        <v>133.34235759306</v>
       </c>
       <c r="S23">
-        <v>0.01932305315664561</v>
+        <v>0.01815503780490395</v>
       </c>
       <c r="T23">
-        <v>0.02401456484329199</v>
+        <v>0.02217705527284</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H24">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I24">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J24">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N24">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O24">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P24">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q24">
-        <v>0.08510623135000001</v>
+        <v>0.11963491942</v>
       </c>
       <c r="R24">
-        <v>0.7659560821500001</v>
+        <v>1.07671427478</v>
       </c>
       <c r="S24">
-        <v>9.233281578265703E-05</v>
+        <v>0.0001465984906564156</v>
       </c>
       <c r="T24">
-        <v>0.0001147506231960949</v>
+        <v>0.0001790755197063853</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H25">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I25">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J25">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N25">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O25">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P25">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q25">
-        <v>3.980570967093334</v>
+        <v>3.27387511695</v>
       </c>
       <c r="R25">
-        <v>23.88342580256001</v>
+        <v>19.6432507017</v>
       </c>
       <c r="S25">
-        <v>0.00431857127244798</v>
+        <v>0.004011748016960933</v>
       </c>
       <c r="T25">
-        <v>0.003578061534818837</v>
+        <v>0.003266999807213</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H26">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I26">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J26">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N26">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O26">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P26">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q26">
-        <v>0.07014687950166668</v>
+        <v>0.13661807346</v>
       </c>
       <c r="R26">
-        <v>0.6313219155150001</v>
+        <v>1.22956266114</v>
       </c>
       <c r="S26">
-        <v>7.610322769574297E-05</v>
+        <v>0.0001674093438832134</v>
       </c>
       <c r="T26">
-        <v>9.45805966307498E-05</v>
+        <v>0.000204496752492857</v>
       </c>
     </row>
   </sheetData>
